--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N2">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O2">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P2">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q2">
-        <v>0.6940166002093333</v>
+        <v>1.991540205719778</v>
       </c>
       <c r="R2">
-        <v>6.246149401884</v>
+        <v>17.923861851478</v>
       </c>
       <c r="S2">
-        <v>0.001498863728168702</v>
+        <v>0.002271928721389504</v>
       </c>
       <c r="T2">
-        <v>0.001498863728168702</v>
+        <v>0.002271928721389504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N3">
         <v>2.882709</v>
       </c>
       <c r="O3">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P3">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q3">
-        <v>1.497628823292</v>
+        <v>1.411093102122</v>
       </c>
       <c r="R3">
-        <v>13.478659409628</v>
+        <v>12.699837919098</v>
       </c>
       <c r="S3">
-        <v>0.003234420503508535</v>
+        <v>0.001609760595371417</v>
       </c>
       <c r="T3">
-        <v>0.003234420503508535</v>
+        <v>0.001609760595371417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N4">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O4">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P4">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q4">
-        <v>0.2850613556</v>
+        <v>0.7721954906379999</v>
       </c>
       <c r="R4">
-        <v>2.5655522004</v>
+        <v>6.949759415741999</v>
       </c>
       <c r="S4">
-        <v>0.0006156453982261592</v>
+        <v>0.0008809127270789247</v>
       </c>
       <c r="T4">
-        <v>0.0006156453982261591</v>
+        <v>0.0008809127270789247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N5">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O5">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P5">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q5">
-        <v>0.1588981974066667</v>
+        <v>0.3117817289546666</v>
       </c>
       <c r="R5">
-        <v>1.43008377666</v>
+        <v>2.806035560592</v>
       </c>
       <c r="S5">
-        <v>0.0003431715386813595</v>
+        <v>0.0003556774112730383</v>
       </c>
       <c r="T5">
-        <v>0.0003431715386813595</v>
+        <v>0.0003556774112730383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N6">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O6">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P6">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q6">
-        <v>115.5758801207429</v>
+        <v>351.9937484479203</v>
       </c>
       <c r="R6">
-        <v>1040.182921086686</v>
+        <v>3167.943736031282</v>
       </c>
       <c r="S6">
-        <v>0.2496085749417295</v>
+        <v>0.4015508723105869</v>
       </c>
       <c r="T6">
-        <v>0.2496085749417294</v>
+        <v>0.4015508723105868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N7">
         <v>2.882709</v>
       </c>
       <c r="O7">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P7">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q7">
-        <v>249.402923927118</v>
+        <v>249.4029239271181</v>
       </c>
       <c r="R7">
         <v>2244.626315344062</v>
       </c>
       <c r="S7">
-        <v>0.538634084920766</v>
+        <v>0.2845163077507404</v>
       </c>
       <c r="T7">
-        <v>0.5386340849207659</v>
+        <v>0.2845163077507404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N8">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O8">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P8">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q8">
-        <v>47.47179974073334</v>
+        <v>136.481294479322</v>
       </c>
       <c r="R8">
-        <v>427.2461976666</v>
+        <v>1228.331650313898</v>
       </c>
       <c r="S8">
-        <v>0.1025245775400931</v>
+        <v>0.1556964664682347</v>
       </c>
       <c r="T8">
-        <v>0.1025245775400931</v>
+        <v>0.1556964664682347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N9">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O9">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P9">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q9">
-        <v>26.46161346765445</v>
+        <v>55.10570118400533</v>
       </c>
       <c r="R9">
-        <v>238.1545212088901</v>
+        <v>495.951310656048</v>
       </c>
       <c r="S9">
-        <v>0.05714899701754181</v>
+        <v>0.06286402095859331</v>
       </c>
       <c r="T9">
-        <v>0.05714899701754179</v>
+        <v>0.06286402095859331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N10">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O10">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P10">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q10">
-        <v>0.2285813197468889</v>
+        <v>0.7988814225311112</v>
       </c>
       <c r="R10">
-        <v>2.057231877722</v>
+        <v>7.18993280278</v>
       </c>
       <c r="S10">
-        <v>0.0004936657840780803</v>
+        <v>0.0009113557655628458</v>
       </c>
       <c r="T10">
-        <v>0.00049366578407808</v>
+        <v>0.0009113557655628457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N11">
         <v>2.882709</v>
       </c>
       <c r="O11">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P11">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q11">
-        <v>0.493259055786</v>
+        <v>0.5660423332200001</v>
       </c>
       <c r="R11">
-        <v>4.439331502073999</v>
+        <v>5.09438099898</v>
       </c>
       <c r="S11">
-        <v>0.001065288794367998</v>
+        <v>0.0006457353111282332</v>
       </c>
       <c r="T11">
-        <v>0.001065288794367998</v>
+        <v>0.0006457353111282332</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N12">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O12">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P12">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q12">
-        <v>0.09388781313333332</v>
+        <v>0.30975655438</v>
       </c>
       <c r="R12">
-        <v>0.8449903181999998</v>
+        <v>2.78780898942</v>
       </c>
       <c r="S12">
-        <v>0.0002027689792725248</v>
+        <v>0.0003533671128071582</v>
       </c>
       <c r="T12">
-        <v>0.0002027689792725248</v>
+        <v>0.0003533671128071582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N13">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O13">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P13">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q13">
-        <v>0.05233471311444444</v>
+        <v>0.1250673375466667</v>
       </c>
       <c r="R13">
-        <v>0.47101241803</v>
+        <v>1.12560603792</v>
       </c>
       <c r="S13">
-        <v>0.0001130269840630546</v>
+        <v>0.0001426755410028457</v>
       </c>
       <c r="T13">
-        <v>0.0001130269840630546</v>
+        <v>0.0001426755410028457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H14">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N14">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O14">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P14">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q14">
-        <v>5.427780761529555</v>
+        <v>34.319282204133</v>
       </c>
       <c r="R14">
-        <v>48.850026853766</v>
+        <v>308.873539837197</v>
       </c>
       <c r="S14">
-        <v>0.01172234742721524</v>
+        <v>0.03915108653749794</v>
       </c>
       <c r="T14">
-        <v>0.01172234742721524</v>
+        <v>0.03915108653749793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H15">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N15">
         <v>2.882709</v>
       </c>
       <c r="O15">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P15">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q15">
-        <v>11.712689455158</v>
+        <v>24.316708369203</v>
       </c>
       <c r="R15">
-        <v>105.414205096422</v>
+        <v>218.850375322827</v>
       </c>
       <c r="S15">
-        <v>0.02529582920400622</v>
+        <v>0.02774025249150218</v>
       </c>
       <c r="T15">
-        <v>0.02529582920400622</v>
+        <v>0.02774025249150218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H16">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N16">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O16">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P16">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q16">
-        <v>2.229414312733333</v>
+        <v>13.306884231537</v>
       </c>
       <c r="R16">
-        <v>20.0647288146</v>
+        <v>119.761958083833</v>
       </c>
       <c r="S16">
-        <v>0.004814853488242558</v>
+        <v>0.01518035759007312</v>
       </c>
       <c r="T16">
-        <v>0.004814853488242557</v>
+        <v>0.01518035759007312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H17">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N17">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O17">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P17">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q17">
-        <v>1.242714624787778</v>
+        <v>5.372788915511999</v>
       </c>
       <c r="R17">
-        <v>11.18443162309</v>
+        <v>48.35510023960799</v>
       </c>
       <c r="S17">
-        <v>0.002683883750039051</v>
+        <v>0.00612922270715755</v>
       </c>
       <c r="T17">
-        <v>0.002683883750039051</v>
+        <v>0.00612922270715755</v>
       </c>
     </row>
   </sheetData>
